--- a/data/CS1/case18_2/case18_2_2020.xlsx
+++ b/data/CS1/case18_2/case18_2_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1C8490-7E64-4E6A-B528-4DE9792A09CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875D17E-2E40-480F-8402-C3C06A758E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14105,11 +14105,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>0.01</v>
-          </cell>
-        </row>
         <row r="3">
           <cell r="B3">
             <v>0.05</v>
@@ -14117,104 +14112,20 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>0.15335457622998083</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>0.19380670527045352</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="B2">
-            <v>0.18562063325812803</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="B2">
-            <v>5.7468268769399915E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="2">
-          <cell r="B2">
-            <v>0.10191276487082146</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="B2">
-            <v>9.4532585622479764E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="B2">
-            <v>0.15500000000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="2">
-          <cell r="B2">
-            <v>0.19545235557090945</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="2">
-          <cell r="B2">
-            <v>0.17604451914219543</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="2">
-          <cell r="B2">
-            <v>4.429530201342282E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="2">
-          <cell r="B2">
-            <v>0.10581587722339157</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="2">
-          <cell r="B2">
-            <v>3.9886125305186121E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
@@ -15187,8 +15098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15204,16 +15115,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -27696,8 +27607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS1/case18_2/case18_2_2020.xlsx
+++ b/data/CS1/case18_2/case18_2_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875D17E-2E40-480F-8402-C3C06A758E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD07F810-BCE6-4BFD-A3FF-ED44D8D869C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="2835" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15099,7 +15099,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15115,16 +15115,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
